--- a/model_results/abalone_means.xlsx
+++ b/model_results/abalone_means.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zackhorton/Documents/MIT/15.095_Machine_Learning/Project/ML-Project/model_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB07EA9F-B1B8-5D40-8660-99287E96CD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413AB844-48DD-2445-BD3B-B45F3AD7BF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="1820" windowWidth="27240" windowHeight="16440" xr2:uid="{BE6E1C63-E239-CD45-B307-C512721E980B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{BE6E1C63-E239-CD45-B307-C512721E980B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:K325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
